--- a/table_model____spi-3__lasso_($\beta_=_$1.5).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$1.5).xlsx
@@ -690,7 +690,7 @@
         <v>0.798426952</v>
       </c>
       <c r="B2">
-        <v>0.8443423861457519</v>
+        <v>0.8832739785755336</v>
       </c>
       <c r="C2">
         <v>0.8834057183071298</v>
@@ -845,7 +845,7 @@
         <v>-0.135008744</v>
       </c>
       <c r="B3">
-        <v>0.7394672121964153</v>
+        <v>0.7735621258985806</v>
       </c>
       <c r="C3">
         <v>0.7736685315868062</v>
@@ -1000,7 +1000,7 @@
         <v>0.483128577</v>
       </c>
       <c r="B4">
-        <v>0.2010589981525372</v>
+        <v>0.2105403164363761</v>
       </c>
       <c r="C4">
         <v>0.2105491196474479</v>
@@ -1155,7 +1155,7 @@
         <v>0.358803155</v>
       </c>
       <c r="B5">
-        <v>-0.3088126469172013</v>
+        <v>-0.3221864223092469</v>
       </c>
       <c r="C5">
         <v>-0.3221606692013973</v>
@@ -1310,7 +1310,7 @@
         <v>0.9297649529999999</v>
       </c>
       <c r="B6">
-        <v>0.2052817414690756</v>
+        <v>0.2149095696240805</v>
       </c>
       <c r="C6">
         <v>0.2149234062160268</v>
@@ -1465,7 +1465,7 @@
         <v>-0.343866365</v>
       </c>
       <c r="B7">
-        <v>-0.5327525872740241</v>
+        <v>-0.5555826680807271</v>
       </c>
       <c r="C7">
         <v>-0.5556593001896192</v>
@@ -1620,7 +1620,7 @@
         <v>-0.394869887</v>
       </c>
       <c r="B8">
-        <v>-0.2508634146646002</v>
+        <v>-0.2621857942778715</v>
       </c>
       <c r="C8">
         <v>-0.2622314149549457</v>
@@ -1775,7 +1775,7 @@
         <v>0.124976886</v>
       </c>
       <c r="B9">
-        <v>0.4390779324505517</v>
+        <v>0.4594041107098296</v>
       </c>
       <c r="C9">
         <v>0.4594313974744482</v>
@@ -1930,7 +1930,7 @@
         <v>0.714385868</v>
       </c>
       <c r="B10">
-        <v>0.8597858634013792</v>
+        <v>0.9006851389582526</v>
       </c>
       <c r="C10">
         <v>0.9007765451395284</v>
@@ -2085,7 +2085,7 @@
         <v>0.495936019</v>
       </c>
       <c r="B11">
-        <v>0.5139582981096867</v>
+        <v>0.5376367950715218</v>
       </c>
       <c r="C11">
         <v>0.5377105341604129</v>
@@ -2240,7 +2240,7 @@
         <v>-1.049232267</v>
       </c>
       <c r="B12">
-        <v>-0.8306914231230551</v>
+        <v>-0.8654122622683696</v>
       </c>
       <c r="C12">
         <v>-0.8655138616026267</v>
@@ -2395,7 +2395,7 @@
         <v>-0.962528123</v>
       </c>
       <c r="B13">
-        <v>-0.5439952419689328</v>
+        <v>-0.5631721409782162</v>
       </c>
       <c r="C13">
         <v>-0.5632739964793353</v>
@@ -2550,7 +2550,7 @@
         <v>-0.823266309</v>
       </c>
       <c r="B14">
-        <v>-0.5407067453768671</v>
+        <v>-0.5622363721127922</v>
       </c>
       <c r="C14">
         <v>-0.5623887132044161</v>
@@ -2705,7 +2705,7 @@
         <v>-0.566899673</v>
       </c>
       <c r="B15">
-        <v>-0.4781436730907884</v>
+        <v>-0.4980899104975213</v>
       </c>
       <c r="C15">
         <v>-0.498160790154726</v>
@@ -2860,7 +2860,7 @@
         <v>1.061843082</v>
       </c>
       <c r="B16">
-        <v>0.897318232831941</v>
+        <v>0.9421979475735425</v>
       </c>
       <c r="C16">
         <v>0.942307577392171</v>
@@ -3015,7 +3015,7 @@
         <v>1.223874814</v>
       </c>
       <c r="B17">
-        <v>1.131333175219044</v>
+        <v>1.186776173156727</v>
       </c>
       <c r="C17">
         <v>1.186907787294773</v>
@@ -3170,7 +3170,7 @@
         <v>1.243571118</v>
       </c>
       <c r="B18">
-        <v>1.070658876961605</v>
+        <v>1.123895902113242</v>
       </c>
       <c r="C18">
         <v>1.124036414522607</v>
@@ -3325,7 +3325,7 @@
         <v>-1.371414383</v>
       </c>
       <c r="B19">
-        <v>-1.127001305744061</v>
+        <v>-1.173269422676197</v>
       </c>
       <c r="C19">
         <v>-1.173360286885268</v>
@@ -3480,7 +3480,7 @@
         <v>-1.6161627</v>
       </c>
       <c r="B20">
-        <v>-1.251223250267828</v>
+        <v>-1.303701123609659</v>
       </c>
       <c r="C20">
         <v>-1.30378836209006</v>
@@ -3635,7 +3635,7 @@
         <v>-1.663613601</v>
       </c>
       <c r="B21">
-        <v>-1.207864861857285</v>
+        <v>-1.256951718239249</v>
       </c>
       <c r="C21">
         <v>-1.257081240035367</v>
@@ -3790,7 +3790,7 @@
         <v>-0.39083508</v>
       </c>
       <c r="B22">
-        <v>-0.381386560044116</v>
+        <v>-0.3979171025231926</v>
       </c>
       <c r="C22">
         <v>-0.3979645139074544</v>
@@ -3945,7 +3945,7 @@
         <v>-1.294350414</v>
       </c>
       <c r="B23">
-        <v>-1.270762817923242</v>
+        <v>-1.325308914258508</v>
       </c>
       <c r="C23">
         <v>-1.325463296870941</v>
@@ -4100,7 +4100,7 @@
         <v>-1.735350123</v>
       </c>
       <c r="B24">
-        <v>-1.593280825325118</v>
+        <v>-1.663086033752091</v>
       </c>
       <c r="C24">
         <v>-1.663246105020864</v>
@@ -4255,7 +4255,7 @@
         <v>-1.464171309</v>
       </c>
       <c r="B25">
-        <v>-1.112381048851128</v>
+        <v>-1.160304352229762</v>
       </c>
       <c r="C25">
         <v>-1.160386687823618</v>
@@ -4410,7 +4410,7 @@
         <v>-1.138267628</v>
       </c>
       <c r="B26">
-        <v>-1.093659744188133</v>
+        <v>-1.140240985162515</v>
       </c>
       <c r="C26">
         <v>-1.140328989880475</v>
@@ -4565,7 +4565,7 @@
         <v>-0.231935471</v>
       </c>
       <c r="B27">
-        <v>-0.1938795634716601</v>
+        <v>-0.2019401590255811</v>
       </c>
       <c r="C27">
         <v>-0.2019398727569759</v>
@@ -4720,7 +4720,7 @@
         <v>-1.071257154</v>
       </c>
       <c r="B28">
-        <v>-1.206989181609236</v>
+        <v>-1.256349444103198</v>
       </c>
       <c r="C28">
         <v>-1.256469155857123</v>
@@ -4875,7 +4875,7 @@
         <v>-0.788753691</v>
       </c>
       <c r="B29">
-        <v>-0.6513576680393108</v>
+        <v>-0.6774443195216553</v>
       </c>
       <c r="C29">
         <v>-0.6775382822732978</v>
@@ -5030,7 +5030,7 @@
         <v>0.168216722</v>
       </c>
       <c r="B30">
-        <v>0.3236824394634435</v>
+        <v>0.3384972801152192</v>
       </c>
       <c r="C30">
         <v>0.3384802275448464</v>
@@ -5185,7 +5185,7 @@
         <v>0.589617249</v>
       </c>
       <c r="B31">
-        <v>1.075181237037632</v>
+        <v>1.124399509969434</v>
       </c>
       <c r="C31">
         <v>1.124467631139068</v>
@@ -5340,7 +5340,7 @@
         <v>0.34764818</v>
       </c>
       <c r="B32">
-        <v>0.8177417150403556</v>
+        <v>0.8548462589057312</v>
       </c>
       <c r="C32">
         <v>0.8548927832384838</v>
@@ -5495,7 +5495,7 @@
         <v>-1.151348471</v>
       </c>
       <c r="B33">
-        <v>-0.3148837391216696</v>
+        <v>-0.3276513988034977</v>
       </c>
       <c r="C33">
         <v>-0.3276903510815586</v>
@@ -5650,7 +5650,7 @@
         <v>-0.696093006</v>
       </c>
       <c r="B34">
-        <v>-0.6956609787109954</v>
+        <v>-0.7251564128650274</v>
       </c>
       <c r="C34">
         <v>-0.7252259904552771</v>
@@ -5805,7 +5805,7 @@
         <v>-0.726012958</v>
       </c>
       <c r="B35">
-        <v>-0.4728606880206673</v>
+        <v>-0.4933862343551733</v>
       </c>
       <c r="C35">
         <v>-0.4934295780243267</v>
@@ -5960,7 +5960,7 @@
         <v>-0.087224411</v>
       </c>
       <c r="B36">
-        <v>-0.2330363582408201</v>
+        <v>-0.2430844492615002</v>
       </c>
       <c r="C36">
         <v>-0.2430995515498954</v>
@@ -6115,7 +6115,7 @@
         <v>-1.025152274</v>
       </c>
       <c r="B37">
-        <v>-0.7775543964138144</v>
+        <v>-0.8100625410178817</v>
       </c>
       <c r="C37">
         <v>-0.8101711685897709</v>
@@ -6270,7 +6270,7 @@
         <v>-1.065636548</v>
       </c>
       <c r="B38">
-        <v>-0.9187214851011567</v>
+        <v>-0.9556459425379996</v>
       </c>
       <c r="C38">
         <v>-0.955774550620818</v>
@@ -6425,7 +6425,7 @@
         <v>-1.658517568</v>
       </c>
       <c r="B39">
-        <v>-0.9318398353973901</v>
+        <v>-0.966919936798592</v>
       </c>
       <c r="C39">
         <v>-0.967046883547275</v>
@@ -6580,7 +6580,7 @@
         <v>0.670350201</v>
       </c>
       <c r="B40">
-        <v>0.3586991509336957</v>
+        <v>0.3757544219364807</v>
       </c>
       <c r="C40">
         <v>0.375840372977167</v>
@@ -6735,7 +6735,7 @@
         <v>0.58174072</v>
       </c>
       <c r="B41">
-        <v>0.3666862700733214</v>
+        <v>0.383449295088711</v>
       </c>
       <c r="C41">
         <v>0.3835206758722333</v>
@@ -6890,7 +6890,7 @@
         <v>1.034492187</v>
       </c>
       <c r="B42">
-        <v>0.6903544146483088</v>
+        <v>0.7225192695525448</v>
       </c>
       <c r="C42">
         <v>0.7226015238351625</v>
@@ -7045,7 +7045,7 @@
         <v>-0.330510864</v>
       </c>
       <c r="B43">
-        <v>-0.2599535220273441</v>
+        <v>-0.2697840801463135</v>
       </c>
       <c r="C43">
         <v>-0.2698512346731455</v>
@@ -7200,7 +7200,7 @@
         <v>0.468647097</v>
       </c>
       <c r="B44">
-        <v>0.4903183152002964</v>
+        <v>0.5136720934718517</v>
       </c>
       <c r="C44">
         <v>0.513705594654052</v>
@@ -7355,7 +7355,7 @@
         <v>1.030934397</v>
       </c>
       <c r="B45">
-        <v>1.518832892965167</v>
+        <v>1.593883878541772</v>
       </c>
       <c r="C45">
         <v>1.59402878044066</v>
@@ -7510,7 +7510,7 @@
         <v>1.479112841</v>
       </c>
       <c r="B46">
-        <v>1.982749328604853</v>
+        <v>2.08327251653126</v>
       </c>
       <c r="C46">
         <v>2.083485322721381</v>
@@ -7665,7 +7665,7 @@
         <v>1.817472853</v>
       </c>
       <c r="B47">
-        <v>2.233649997615175</v>
+        <v>2.344549572582497</v>
       </c>
       <c r="C47">
         <v>2.344776900695732</v>
@@ -7820,7 +7820,7 @@
         <v>0.369717394</v>
       </c>
       <c r="B48">
-        <v>0.802249136173616</v>
+        <v>0.8393230262410448</v>
       </c>
       <c r="C48">
         <v>0.8393968969030616</v>
@@ -7975,7 +7975,7 @@
         <v>-0.162350195</v>
       </c>
       <c r="B49">
-        <v>-0.1207377121023209</v>
+        <v>-0.1256158513116109</v>
       </c>
       <c r="C49">
         <v>-0.1256061859655285</v>
@@ -8130,7 +8130,7 @@
         <v>-0.729825744</v>
       </c>
       <c r="B50">
-        <v>-0.9152020186097347</v>
+        <v>-0.9553803427604053</v>
       </c>
       <c r="C50">
         <v>-0.9554173983694596</v>
@@ -8285,7 +8285,7 @@
         <v>-0.317430882</v>
       </c>
       <c r="B51">
-        <v>-0.8242369469983076</v>
+        <v>-0.8604064457656855</v>
       </c>
       <c r="C51">
         <v>-0.8604223337262815</v>
@@ -8440,7 +8440,7 @@
         <v>-0.490640104</v>
       </c>
       <c r="B52">
-        <v>-0.691632798523883</v>
+        <v>-0.7216152028161081</v>
       </c>
       <c r="C52">
         <v>-0.7215835952708717</v>
@@ -8595,7 +8595,7 @@
         <v>-1.100609032</v>
       </c>
       <c r="B53">
-        <v>-0.9630235092007126</v>
+        <v>-1.002794246701248</v>
       </c>
       <c r="C53">
         <v>-1.002858733605429</v>
@@ -8750,7 +8750,7 @@
         <v>-0.351083172</v>
       </c>
       <c r="B54">
-        <v>-0.2460476469544692</v>
+        <v>-0.2564023512797001</v>
       </c>
       <c r="C54">
         <v>-0.2563948495320925</v>
@@ -8905,7 +8905,7 @@
         <v>0.476992209</v>
       </c>
       <c r="B55">
-        <v>0.8347003217541614</v>
+        <v>0.8732765955654435</v>
       </c>
       <c r="C55">
         <v>0.8733548683924447</v>
@@ -9060,7 +9060,7 @@
         <v>1.269210822</v>
       </c>
       <c r="B56">
-        <v>1.544633709655368</v>
+        <v>1.61825057174346</v>
       </c>
       <c r="C56">
         <v>1.618380844421885</v>
@@ -9215,7 +9215,7 @@
         <v>1.68335771</v>
       </c>
       <c r="B57">
-        <v>1.743699713977657</v>
+        <v>1.827460170256429</v>
       </c>
       <c r="C57">
         <v>1.827628621589072</v>
@@ -9370,7 +9370,7 @@
         <v>1.248614285</v>
       </c>
       <c r="B58">
-        <v>1.284477772551679</v>
+        <v>1.345170814070826</v>
       </c>
       <c r="C58">
         <v>1.345296562048631</v>
@@ -9525,7 +9525,7 @@
         <v>0.747520063</v>
       </c>
       <c r="B59">
-        <v>0.6954146562955429</v>
+        <v>0.7288539512882802</v>
       </c>
       <c r="C59">
         <v>0.7289374413266294</v>
@@ -9680,7 +9680,7 @@
         <v>-0.631971431</v>
       </c>
       <c r="B60">
-        <v>-0.4732481387377843</v>
+        <v>-0.4939585504748214</v>
       </c>
       <c r="C60">
         <v>-0.4940113392128831</v>
@@ -9835,7 +9835,7 @@
         <v>-0.10813702</v>
       </c>
       <c r="B61">
-        <v>0.1673373086340851</v>
+        <v>0.1753391020578552</v>
       </c>
       <c r="C61">
         <v>0.1753682217586684</v>
@@ -9990,7 +9990,7 @@
         <v>0.399434913</v>
       </c>
       <c r="B62">
-        <v>0.6582574349523035</v>
+        <v>0.6881479305375271</v>
       </c>
       <c r="C62">
         <v>0.6881994100035949</v>
@@ -10145,7 +10145,7 @@
         <v>0.598079881</v>
       </c>
       <c r="B63">
-        <v>0.8582005469994172</v>
+        <v>0.8984074441070496</v>
       </c>
       <c r="C63">
         <v>0.8984620358263872</v>
@@ -10300,7 +10300,7 @@
         <v>-0.364643642</v>
       </c>
       <c r="B64">
-        <v>-0.1217077419559827</v>
+        <v>-0.1277030149577649</v>
       </c>
       <c r="C64">
         <v>-0.1277776432022185</v>
@@ -10455,7 +10455,7 @@
         <v>2.015990384</v>
       </c>
       <c r="B65">
-        <v>1.778250212354897</v>
+        <v>1.869591532395816</v>
       </c>
       <c r="C65">
         <v>1.869753788753584</v>
@@ -10610,7 +10610,7 @@
         <v>2.364869298</v>
       </c>
       <c r="B66">
-        <v>1.85288411013136</v>
+        <v>1.948856512975449</v>
       </c>
       <c r="C66">
         <v>1.949028489256788</v>
@@ -10765,7 +10765,7 @@
         <v>2.827580557</v>
       </c>
       <c r="B67">
-        <v>2.049855640471335</v>
+        <v>2.15550719277303</v>
       </c>
       <c r="C67">
         <v>2.155689252729051</v>
@@ -10920,7 +10920,7 @@
         <v>0.626809444</v>
       </c>
       <c r="B68">
-        <v>0.4497888666432961</v>
+        <v>0.4701126655522813</v>
       </c>
       <c r="C68">
         <v>0.4701091497984266</v>
@@ -11075,7 +11075,7 @@
         <v>0.49739888</v>
       </c>
       <c r="B69">
-        <v>0.373372756564942</v>
+        <v>0.3903263801018901</v>
       </c>
       <c r="C69">
         <v>0.3903197883502084</v>
@@ -11230,7 +11230,7 @@
         <v>0.325808278</v>
       </c>
       <c r="B70">
-        <v>0.0112933966114566</v>
+        <v>0.01278893683127423</v>
       </c>
       <c r="C70">
         <v>0.012758238834289</v>
@@ -11385,7 +11385,7 @@
         <v>0.365489314</v>
       </c>
       <c r="B71">
-        <v>0.08974542683515049</v>
+        <v>0.09420543705792285</v>
       </c>
       <c r="C71">
         <v>0.09420565628080232</v>
@@ -11540,7 +11540,7 @@
         <v>1.026844468</v>
       </c>
       <c r="B72">
-        <v>0.6819673452809384</v>
+        <v>0.7151454168960344</v>
       </c>
       <c r="C72">
         <v>0.7152213234010819</v>
@@ -11695,7 +11695,7 @@
         <v>0.699083059</v>
       </c>
       <c r="B73">
-        <v>0.5913448229550923</v>
+        <v>0.6229265691706838</v>
       </c>
       <c r="C73">
         <v>0.6230335674749717</v>
@@ -11850,7 +11850,7 @@
         <v>0.662278742</v>
       </c>
       <c r="B74">
-        <v>0.6149709291996021</v>
+        <v>0.6462459729890456</v>
       </c>
       <c r="C74">
         <v>0.6463296686556226</v>
@@ -12005,7 +12005,7 @@
         <v>0.456505507</v>
       </c>
       <c r="B75">
-        <v>0.3225116525609985</v>
+        <v>0.3384192084410818</v>
       </c>
       <c r="C75">
         <v>0.3384774278900032</v>
@@ -12160,7 +12160,7 @@
         <v>-0.181605646</v>
       </c>
       <c r="B76">
-        <v>-0.1661143290861417</v>
+        <v>-0.1719372445803912</v>
       </c>
       <c r="C76">
         <v>-0.1720031780214419</v>
@@ -12315,7 +12315,7 @@
         <v>0.647849754</v>
       </c>
       <c r="B77">
-        <v>0.4174890162495342</v>
+        <v>0.4369629406136798</v>
       </c>
       <c r="C77">
         <v>0.4370177168972427</v>
@@ -12470,7 +12470,7 @@
         <v>-0.151031448</v>
       </c>
       <c r="B78">
-        <v>-0.440750899131697</v>
+        <v>-0.4594935046163581</v>
       </c>
       <c r="C78">
         <v>-0.4595271371776621</v>
@@ -12625,7 +12625,7 @@
         <v>0.204622557</v>
       </c>
       <c r="B79">
-        <v>-0.01962424662056807</v>
+        <v>-0.01988816310086258</v>
       </c>
       <c r="C79">
         <v>-0.01987879166687737</v>
@@ -12780,7 +12780,7 @@
         <v>0.6727765610000001</v>
       </c>
       <c r="B80">
-        <v>0.597530034545152</v>
+        <v>0.6248009859196942</v>
       </c>
       <c r="C80">
         <v>0.6248165342794993</v>
@@ -12935,7 +12935,7 @@
         <v>1.409854459</v>
       </c>
       <c r="B81">
-        <v>1.269331713158529</v>
+        <v>1.328637099029628</v>
       </c>
       <c r="C81">
         <v>1.328716940709029</v>
@@ -13090,7 +13090,7 @@
         <v>1.436857019</v>
       </c>
       <c r="B82">
-        <v>1.180205889524591</v>
+        <v>1.234395507798372</v>
       </c>
       <c r="C82">
         <v>1.234478298417447</v>
@@ -13245,7 +13245,7 @@
         <v>-0.078187413</v>
       </c>
       <c r="B83">
-        <v>-0.3789516942634639</v>
+        <v>-0.394734561923499</v>
       </c>
       <c r="C83">
         <v>-0.3948354578985159</v>
@@ -13400,7 +13400,7 @@
         <v>-0.089819775</v>
       </c>
       <c r="B84">
-        <v>-0.1964896959600332</v>
+        <v>-0.2048614176272449</v>
       </c>
       <c r="C84">
         <v>-0.204930994074578</v>
@@ -13555,7 +13555,7 @@
         <v>-0.951749297</v>
       </c>
       <c r="B85">
-        <v>-0.8766267937711517</v>
+        <v>-0.9146927450870732</v>
       </c>
       <c r="C85">
         <v>-0.9148290245604268</v>
@@ -13710,7 +13710,7 @@
         <v>-0.611776729</v>
       </c>
       <c r="B86">
-        <v>-0.3661839295546253</v>
+        <v>-0.3825164829467833</v>
       </c>
       <c r="C86">
         <v>-0.382601270416256</v>
@@ -13865,7 +13865,7 @@
         <v>-1.503113365</v>
       </c>
       <c r="B87">
-        <v>-1.427661300386832</v>
+        <v>-1.489229962879387</v>
       </c>
       <c r="C87">
         <v>-1.48946088428003</v>
@@ -14020,7 +14020,7 @@
         <v>-0.95035541</v>
       </c>
       <c r="B88">
-        <v>-1.224769890036819</v>
+        <v>-1.278512774340277</v>
       </c>
       <c r="C88">
         <v>-1.278754520499787</v>
@@ -14175,7 +14175,7 @@
         <v>-0.869041164</v>
       </c>
       <c r="B89">
-        <v>-0.6762564534381822</v>
+        <v>-0.7053036807010361</v>
       </c>
       <c r="C89">
         <v>-0.7054306793935299</v>
@@ -14330,7 +14330,7 @@
         <v>-0.621619324</v>
       </c>
       <c r="B90">
-        <v>-0.5690210074828211</v>
+        <v>-0.5929282611754975</v>
       </c>
       <c r="C90">
         <v>-0.5930467610628296</v>
@@ -14485,7 +14485,7 @@
         <v>0.820733698</v>
       </c>
       <c r="B91">
-        <v>0.3467892458390062</v>
+        <v>0.362597016158552</v>
       </c>
       <c r="C91">
         <v>0.3625812980698085</v>
@@ -14640,7 +14640,7 @@
         <v>1.157975086</v>
       </c>
       <c r="B92">
-        <v>0.6383935203073458</v>
+        <v>0.6672320412978481</v>
       </c>
       <c r="C92">
         <v>0.6672328947743684</v>
@@ -14795,7 +14795,7 @@
         <v>1.16180901</v>
       </c>
       <c r="B93">
-        <v>0.666873644363904</v>
+        <v>0.697044941653657</v>
       </c>
       <c r="C93">
         <v>0.6970543272406554</v>
@@ -14950,7 +14950,7 @@
         <v>0.673844651</v>
       </c>
       <c r="B94">
-        <v>0.4231349090346052</v>
+        <v>0.4423505976601742</v>
       </c>
       <c r="C94">
         <v>0.4423458546307737</v>
@@ -15105,7 +15105,7 @@
         <v>0.576154411</v>
       </c>
       <c r="B95">
-        <v>0.2617456341587599</v>
+        <v>0.2737414784323623</v>
       </c>
       <c r="C95">
         <v>0.2737156455812357</v>
@@ -15260,7 +15260,7 @@
         <v>-0.247999935</v>
       </c>
       <c r="B96">
-        <v>-0.3427685631670868</v>
+        <v>-0.3574878673009555</v>
       </c>
       <c r="C96">
         <v>-0.3575739767689388</v>
@@ -15415,7 +15415,7 @@
         <v>-1.022406207</v>
       </c>
       <c r="B97">
-        <v>-1.077163723572969</v>
+        <v>-1.123633032411393</v>
       </c>
       <c r="C97">
         <v>-1.123791513856458</v>
@@ -15570,7 +15570,7 @@
         <v>-0.898568511</v>
       </c>
       <c r="B98">
-        <v>-0.7303064053608953</v>
+        <v>-0.7625225711713033</v>
       </c>
       <c r="C98">
         <v>-0.7626499357730749</v>
@@ -15725,7 +15725,7 @@
         <v>-0.35746994</v>
       </c>
       <c r="B99">
-        <v>-0.1690925979079583</v>
+        <v>-0.1766299841003205</v>
       </c>
       <c r="C99">
         <v>-0.1766926547707839</v>
@@ -15880,7 +15880,7 @@
         <v>-0.676801503</v>
       </c>
       <c r="B100">
-        <v>0.05633824675681091</v>
+        <v>0.0587982036083288</v>
       </c>
       <c r="C100">
         <v>0.05874151431846599</v>
@@ -16035,7 +16035,7 @@
         <v>-0.963128334</v>
       </c>
       <c r="B101">
-        <v>-0.1815587590383549</v>
+        <v>-0.1893099999185393</v>
       </c>
       <c r="C101">
         <v>-0.189377511313756</v>
@@ -16190,7 +16190,7 @@
         <v>-1.089650457</v>
       </c>
       <c r="B102">
-        <v>-0.4402840744500808</v>
+        <v>-0.4588133593082151</v>
       </c>
       <c r="C102">
         <v>-0.4589172440638821</v>
@@ -16345,7 +16345,7 @@
         <v>-1.754660522</v>
       </c>
       <c r="B103">
-        <v>-1.005876666150544</v>
+        <v>-1.046761200576418</v>
       </c>
       <c r="C103">
         <v>-1.046922460571683</v>
@@ -16500,7 +16500,7 @@
         <v>-1.724252511</v>
       </c>
       <c r="B104">
-        <v>-1.554122069777593</v>
+        <v>-1.615731145515428</v>
       </c>
       <c r="C104">
         <v>-1.61595182944467</v>
@@ -16655,7 +16655,7 @@
         <v>-1.868408762</v>
       </c>
       <c r="B105">
-        <v>-1.772299355675987</v>
+        <v>-1.841745278156877</v>
       </c>
       <c r="C105">
         <v>-1.842006825120199</v>
@@ -16810,7 +16810,7 @@
         <v>-0.07703964000000001</v>
       </c>
       <c r="B106">
-        <v>-0.4252487844480464</v>
+        <v>-0.4425379491900384</v>
       </c>
       <c r="C106">
         <v>-0.4426432300015256</v>
@@ -16965,7 +16965,7 @@
         <v>-0.058419279</v>
       </c>
       <c r="B107">
-        <v>-0.5079800791417316</v>
+        <v>-0.5291653601293633</v>
       </c>
       <c r="C107">
         <v>-0.5292815684222077</v>
@@ -17120,7 +17120,7 @@
         <v>1.204247991</v>
       </c>
       <c r="B108">
-        <v>0.6912620912941029</v>
+        <v>0.7230418205963764</v>
       </c>
       <c r="C108">
         <v>0.7230714051045951</v>
@@ -17275,7 +17275,7 @@
         <v>1.183657404</v>
       </c>
       <c r="B109">
-        <v>1.282022271511012</v>
+        <v>1.342616385656937</v>
       </c>
       <c r="C109">
         <v>1.342710352964074</v>
@@ -17430,7 +17430,7 @@
         <v>1.235714724</v>
       </c>
       <c r="B110">
-        <v>1.531048406881925</v>
+        <v>1.604440629598001</v>
       </c>
       <c r="C110">
         <v>1.604567895859229</v>
@@ -17585,7 +17585,7 @@
         <v>1.193822144</v>
       </c>
       <c r="B111">
-        <v>1.05065319375056</v>
+        <v>1.100346117750608</v>
       </c>
       <c r="C111">
         <v>1.100419270491048</v>
@@ -17740,7 +17740,7 @@
         <v>1.680661976</v>
       </c>
       <c r="B112">
-        <v>1.528278790959704</v>
+        <v>1.600821208217999</v>
       </c>
       <c r="C112">
         <v>1.600926339825562</v>
@@ -17895,7 +17895,7 @@
         <v>1.735508276</v>
       </c>
       <c r="B113">
-        <v>1.721806788374686</v>
+        <v>1.80408543654067</v>
       </c>
       <c r="C113">
         <v>1.80421549977897</v>
@@ -18050,7 +18050,7 @@
         <v>1.120645867</v>
       </c>
       <c r="B114">
-        <v>1.618746828678049</v>
+        <v>1.695665018466541</v>
       </c>
       <c r="C114">
         <v>1.695779788655616</v>
@@ -18205,7 +18205,7 @@
         <v>0.220765723</v>
       </c>
       <c r="B115">
-        <v>0.5241595118364418</v>
+        <v>0.5479853222812976</v>
       </c>
       <c r="C115">
         <v>0.5479880029648529</v>
@@ -18360,7 +18360,7 @@
         <v>0.291028273</v>
       </c>
       <c r="B116">
-        <v>0.4324469588130103</v>
+        <v>0.452041901091079</v>
       </c>
       <c r="C116">
         <v>0.4520228561695459</v>
@@ -18515,7 +18515,7 @@
         <v>0.583045483</v>
       </c>
       <c r="B117">
-        <v>1.125409150464555</v>
+        <v>1.176903833101637</v>
       </c>
       <c r="C117">
         <v>1.176961141326834</v>
@@ -18670,7 +18670,7 @@
         <v>1.459657324</v>
       </c>
       <c r="B118">
-        <v>1.486056549872285</v>
+        <v>1.555042783138955</v>
       </c>
       <c r="C118">
         <v>1.555160550031317</v>
@@ -18825,7 +18825,7 @@
         <v>0.957846139</v>
       </c>
       <c r="B119">
-        <v>1.292849163542304</v>
+        <v>1.353035450726654</v>
       </c>
       <c r="C119">
         <v>1.353127963100921</v>
@@ -18980,7 +18980,7 @@
         <v>1.102629823</v>
       </c>
       <c r="B120">
-        <v>0.5068747289655082</v>
+        <v>0.5300808355987107</v>
       </c>
       <c r="C120">
         <v>0.5300899678335014</v>
@@ -19135,7 +19135,7 @@
         <v>1.64061108</v>
       </c>
       <c r="B121">
-        <v>1.400537537396644</v>
+        <v>1.467007979978928</v>
       </c>
       <c r="C121">
         <v>1.467114290801798</v>
@@ -19290,7 +19290,7 @@
         <v>1.886908677</v>
       </c>
       <c r="B122">
-        <v>1.468793661889009</v>
+        <v>1.539043935073187</v>
       </c>
       <c r="C122">
         <v>1.53916440968253</v>
@@ -19445,7 +19445,7 @@
         <v>1.733513011</v>
       </c>
       <c r="B123">
-        <v>1.832453041358907</v>
+        <v>1.92206175235755</v>
       </c>
       <c r="C123">
         <v>1.92221682450113</v>
@@ -19600,7 +19600,7 @@
         <v>-0.0362457</v>
       </c>
       <c r="B124">
-        <v>0.4520019302241321</v>
+        <v>0.4725718066176215</v>
       </c>
       <c r="C124">
         <v>0.4725614590637096</v>
@@ -19755,7 +19755,7 @@
         <v>0.430903942</v>
       </c>
       <c r="B125">
-        <v>0.8844215913540908</v>
+        <v>0.925355988772625</v>
       </c>
       <c r="C125">
         <v>0.9254027471483377</v>
@@ -19910,7 +19910,7 @@
         <v>-0.243546309</v>
       </c>
       <c r="B126">
-        <v>0.007591258401194886</v>
+        <v>0.008278211458570606</v>
       </c>
       <c r="C126">
         <v>0.008223982417015545</v>
@@ -20065,7 +20065,7 @@
         <v>-0.931687809</v>
       </c>
       <c r="B127">
-        <v>-0.87482926918796</v>
+        <v>-0.9105493789554467</v>
       </c>
       <c r="C127">
         <v>-0.9106959923457439</v>
@@ -20220,7 +20220,7 @@
         <v>0.141116369</v>
       </c>
       <c r="B128">
-        <v>0.1395011125761347</v>
+        <v>0.1462251744382862</v>
       </c>
       <c r="C128">
         <v>0.1461775990440924</v>
@@ -20375,7 +20375,7 @@
         <v>0.56391939</v>
       </c>
       <c r="B129">
-        <v>0.5619669762879081</v>
+        <v>0.5873820056363797</v>
       </c>
       <c r="C129">
         <v>0.5873803499271399</v>
@@ -20530,7 +20530,7 @@
         <v>1.941603295</v>
       </c>
       <c r="B130">
-        <v>1.736958691025426</v>
+        <v>1.818375692624059</v>
       </c>
       <c r="C130">
         <v>1.818522026482868</v>
@@ -20685,7 +20685,7 @@
         <v>0.686945786</v>
       </c>
       <c r="B131">
-        <v>0.7948865191320361</v>
+        <v>0.8312494990524609</v>
       </c>
       <c r="C131">
         <v>0.8312851582885588</v>
@@ -20840,7 +20840,7 @@
         <v>0.489776809</v>
       </c>
       <c r="B132">
-        <v>1.119976157901434</v>
+        <v>1.172175691996865</v>
       </c>
       <c r="C132">
         <v>1.172252597437772</v>
@@ -20995,7 +20995,7 @@
         <v>-0.927615797</v>
       </c>
       <c r="B133">
-        <v>0.1175104693411508</v>
+        <v>0.1229583345387202</v>
       </c>
       <c r="C133">
         <v>0.1229296756730581</v>
@@ -21150,7 +21150,7 @@
         <v>-0.570785532</v>
       </c>
       <c r="B134">
-        <v>0.1128189638502504</v>
+        <v>0.1180042317748476</v>
       </c>
       <c r="C134">
         <v>0.1179742699667743</v>
@@ -21305,7 +21305,7 @@
         <v>0.629936161</v>
       </c>
       <c r="B135">
-        <v>0.2504529418598374</v>
+        <v>0.2619586862014274</v>
       </c>
       <c r="C135">
         <v>0.2619444051578314</v>
@@ -21460,7 +21460,7 @@
         <v>1.229927464</v>
       </c>
       <c r="B136">
-        <v>1.081788868615498</v>
+        <v>1.132253992342354</v>
       </c>
       <c r="C136">
         <v>1.132312557083943</v>
@@ -21615,7 +21615,7 @@
         <v>0.831135585</v>
       </c>
       <c r="B137">
-        <v>0.6069598723067954</v>
+        <v>0.6348166351611348</v>
       </c>
       <c r="C137">
         <v>0.6348348386962176</v>
@@ -21770,7 +21770,7 @@
         <v>-0.615633494</v>
       </c>
       <c r="B138">
-        <v>-0.195809330588333</v>
+        <v>-0.2039487727157395</v>
       </c>
       <c r="C138">
         <v>-0.2040253431335708</v>
@@ -21925,7 +21925,7 @@
         <v>-0.504548817</v>
       </c>
       <c r="B139">
-        <v>-0.4666249611067506</v>
+        <v>-0.4858223049026046</v>
       </c>
       <c r="C139">
         <v>-0.4859241804666262</v>
